--- a/RanDunGeon/Assets/GameResources/MonsterStatus.xlsx
+++ b/RanDunGeon/Assets/GameResources/MonsterStatus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphapo/Desktop/UnityProject/2024_01_A_TeamProject/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphapo/Desktop/UnityProject/2024_01_A_TeamProject/RanDunGeon/Assets/GameResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F1D627-7C0E-AD4A-A73C-14961AB28BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3657D8D4-E991-2946-94CE-2FB7FFC9B203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{3D0208CF-FB2A-DB42-B6D0-7B43D6D6B88C}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" activeTab="1" xr2:uid="{3D0208CF-FB2A-DB42-B6D0-7B43D6D6B88C}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 0" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,13 @@
   </si>
   <si>
     <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardCard</t>
+  </si>
+  <si>
+    <t>RewardCard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +114,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -135,8 +150,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,15 +491,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F49571E-AAAE-6949-BB21-9F9C5343F305}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,8 +536,11 @@
       <c r="L1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -555,6 +576,9 @@
       </c>
       <c r="L2">
         <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,15 +589,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2AF673-7853-FD47-A2E1-46ADAFA4D270}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -610,8 +634,11 @@
       <c r="L1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -648,8 +675,11 @@
       <c r="L2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -686,8 +716,11 @@
       <c r="L3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -724,8 +757,11 @@
       <c r="L4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -762,8 +798,11 @@
       <c r="L5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -799,6 +838,9 @@
       </c>
       <c r="L6">
         <v>13</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -809,15 +851,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8337DEDC-8E51-7947-A718-51C45C28FCC7}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -854,8 +896,11 @@
       <c r="L1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -892,8 +937,11 @@
       <c r="L2">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -930,8 +978,11 @@
       <c r="L3">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -968,8 +1019,11 @@
       <c r="L4">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1006,8 +1060,11 @@
       <c r="L5">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1044,8 +1101,11 @@
       <c r="L6">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1082,8 +1142,11 @@
       <c r="L7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1120,8 +1183,11 @@
       <c r="L8">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1158,8 +1224,11 @@
       <c r="L9">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1196,8 +1265,11 @@
       <c r="L10">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1233,6 +1305,9 @@
       </c>
       <c r="L11">
         <v>23</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/RanDunGeon/Assets/GameResources/MonsterStatus.xlsx
+++ b/RanDunGeon/Assets/GameResources/MonsterStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphapo/Desktop/UnityProject/2024_01_A_TeamProject/RanDunGeon/Assets/GameResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3657D8D4-E991-2946-94CE-2FB7FFC9B203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30732D08-94C8-7E48-84D3-E51742A6CB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" activeTab="1" xr2:uid="{3D0208CF-FB2A-DB42-B6D0-7B43D6D6B88C}"/>
   </bookViews>
@@ -592,7 +592,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
